--- a/Excel配置表/敌人配置表.xlsx
+++ b/Excel配置表/敌人配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\鸽鸽塔防地编生成\Assets\Excel配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\Excel配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D6D05D-9228-4841-A4CD-CBF3EC8362E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F2BA56-9A9E-43B1-97B8-60892EED14A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4932" yWindow="3264" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyConfiguration" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PropertyType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyMark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +206,6 @@
   </si>
   <si>
     <t>SSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DADA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -672,7 +664,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -693,34 +685,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="J1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -728,130 +720,152 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="B5" s="3">
+        <f>IF(C5&lt;&gt;"", COUNTIF($C$5:C5, "&lt;&gt;"), "")</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" s="3">
-        <f>IF(C6&lt;&gt;"", COUNTIF($C$6:C6, "&lt;&gt;"), "")</f>
-        <v>1</v>
+        <f>IF(C6&lt;&gt;"", COUNTIF($C$5:C6, "&lt;&gt;"), "")</f>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -860,57 +874,24 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="12">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
       <c r="I6" s="12">
-        <v>0.45</v>
+        <v>0.32100000000000001</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
-        <f>IF(C7&lt;&gt;"", COUNTIF($C$6:C7, "&lt;&gt;"), "")</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
-      <c r="H7" s="12">
-        <v>0.21</v>
-      </c>
-      <c r="I7" s="12">
-        <v>0.32100000000000001</v>
-      </c>
-      <c r="J7" s="12" t="s">
         <v>31</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
-        <f>IF(C8&lt;&gt;"", COUNTIF($C$6:C8, "&lt;&gt;"), "")</f>
+        <f>IF(C8&lt;&gt;"", COUNTIF($C$5:C8, "&lt;&gt;"), "")</f>
         <v/>
       </c>
       <c r="H8" s="3"/>
@@ -918,66 +899,67 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
-        <f>IF(C9&lt;&gt;"", COUNTIF($C$6:C9, "&lt;&gt;"), "")</f>
+        <f>IF(C9&lt;&gt;"", COUNTIF($C$5:C9, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
-        <f>IF(C11&lt;&gt;"", COUNTIF($C$6:C11, "&lt;&gt;"), "")</f>
+        <f>IF(C11&lt;&gt;"", COUNTIF($C$5:C11, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
-        <f>IF(C12&lt;&gt;"", COUNTIF($C$6:C12, "&lt;&gt;"), "")</f>
+        <f>IF(C12&lt;&gt;"", COUNTIF($C$5:C12, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
-        <f>IF(C13&lt;&gt;"", COUNTIF($C$6:C13, "&lt;&gt;"), "")</f>
+        <f>IF(C13&lt;&gt;"", COUNTIF($C$5:C13, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
-        <f>IF(C14&lt;&gt;"", COUNTIF($C$6:C14, "&lt;&gt;"), "")</f>
+        <f>IF(C14&lt;&gt;"", COUNTIF($C$5:C14, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
-        <f>IF(C15&lt;&gt;"", COUNTIF($C$6:C15, "&lt;&gt;"), "")</f>
+        <f>IF(C15&lt;&gt;"", COUNTIF($C$5:C15, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
-        <f>IF(C16&lt;&gt;"", COUNTIF($C$6:C16, "&lt;&gt;"), "")</f>
+        <f>IF(C16&lt;&gt;"", COUNTIF($C$5:C16, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
-        <f>IF(C17&lt;&gt;"", COUNTIF($C$6:C17, "&lt;&gt;"), "")</f>
+        <f>IF(C17&lt;&gt;"", COUNTIF($C$5:C17, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
-        <f>IF(C18&lt;&gt;"", COUNTIF($C$6:C18, "&lt;&gt;"), "")</f>
+        <f>IF(C18&lt;&gt;"", COUNTIF($C$5:C18, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
-        <f>IF(C19&lt;&gt;"", COUNTIF($C$6:C19, "&lt;&gt;"), "")</f>
+        <f>IF(C19&lt;&gt;"", COUNTIF($C$5:C19, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel配置表/敌人配置表.xlsx
+++ b/Excel配置表/敌人配置表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\Excel配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F2BA56-9A9E-43B1-97B8-60892EED14A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF2A21-61EB-42CB-B3D9-C278F0977BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4932" yWindow="3264" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1548" yWindow="2844" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnemyConfiguration" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemy1" sheetId="1" r:id="rId1"/>
+    <sheet name="Enemy2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
   <si>
     <t>PropertyName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +215,38 @@
   </si>
   <si>
     <t>BBBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnemyConfiguration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸王鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙鸟鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONGNIAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BAWANF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -288,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +340,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,11 +370,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -373,6 +425,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -662,9 +717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -680,192 +735,167 @@
     <col min="10" max="16384" width="11.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <f>IF(C5&lt;&gt;"", COUNTIF($C$5:C5, "&lt;&gt;"), "")</f>
+      <c r="B6" s="3">
+        <f>IF(C6&lt;&gt;"", COUNTIF($C$6:C6, "&lt;&gt;"), "")</f>
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="3">
         <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>2</v>
-      </c>
-      <c r="H5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="12">
-        <v>0.45</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
-        <f>IF(C6&lt;&gt;"", COUNTIF($C$5:C6, "&lt;&gt;"), "")</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -874,24 +904,57 @@
         <v>1</v>
       </c>
       <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>IF(C7&lt;&gt;"", COUNTIF($C$6:C7, "&lt;&gt;"), "")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H7" s="12">
         <v>0.21</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I7" s="12">
         <v>0.32100000000000001</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K7" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="str">
-        <f>IF(C8&lt;&gt;"", COUNTIF($C$5:C8, "&lt;&gt;"), "")</f>
+        <f>IF(C8&lt;&gt;"", COUNTIF($C$6:C8, "&lt;&gt;"), "")</f>
         <v/>
       </c>
       <c r="H8" s="3"/>
@@ -899,61 +962,375 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="str">
-        <f>IF(C9&lt;&gt;"", COUNTIF($C$5:C9, "&lt;&gt;"), "")</f>
+        <f>IF(C9&lt;&gt;"", COUNTIF($C$6:C9, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="str">
-        <f>IF(C11&lt;&gt;"", COUNTIF($C$5:C11, "&lt;&gt;"), "")</f>
+        <f>IF(C11&lt;&gt;"", COUNTIF($C$6:C11, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="str">
-        <f>IF(C12&lt;&gt;"", COUNTIF($C$5:C12, "&lt;&gt;"), "")</f>
+        <f>IF(C12&lt;&gt;"", COUNTIF($C$6:C12, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="str">
-        <f>IF(C13&lt;&gt;"", COUNTIF($C$5:C13, "&lt;&gt;"), "")</f>
+        <f>IF(C13&lt;&gt;"", COUNTIF($C$6:C13, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="str">
-        <f>IF(C14&lt;&gt;"", COUNTIF($C$5:C14, "&lt;&gt;"), "")</f>
+        <f>IF(C14&lt;&gt;"", COUNTIF($C$6:C14, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="str">
-        <f>IF(C15&lt;&gt;"", COUNTIF($C$5:C15, "&lt;&gt;"), "")</f>
+        <f>IF(C15&lt;&gt;"", COUNTIF($C$6:C15, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="str">
-        <f>IF(C16&lt;&gt;"", COUNTIF($C$5:C16, "&lt;&gt;"), "")</f>
+        <f>IF(C16&lt;&gt;"", COUNTIF($C$6:C16, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="str">
-        <f>IF(C17&lt;&gt;"", COUNTIF($C$5:C17, "&lt;&gt;"), "")</f>
+        <f>IF(C17&lt;&gt;"", COUNTIF($C$6:C17, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="str">
-        <f>IF(C18&lt;&gt;"", COUNTIF($C$5:C18, "&lt;&gt;"), "")</f>
+        <f>IF(C18&lt;&gt;"", COUNTIF($C$6:C18, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="str">
-        <f>IF(C19&lt;&gt;"", COUNTIF($C$5:C19, "&lt;&gt;"), "")</f>
+        <f>IF(C19&lt;&gt;"", COUNTIF($C$6:C19, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92028DA-129D-483E-9EDD-71E019741A0A}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" style="3"/>
+    <col min="8" max="8" width="15.5546875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="11.77734375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="4" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>IF(C6&lt;&gt;"", COUNTIF($C$6:C6, "&lt;&gt;"), "")</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>777</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <f>IF(C7&lt;&gt;"", COUNTIF($C$6:C7, "&lt;&gt;"), "")</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>114541</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="str">
+        <f>IF(C8&lt;&gt;"", COUNTIF($C$6:C8, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="str">
+        <f>IF(C9&lt;&gt;"", COUNTIF($C$6:C9, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="str">
+        <f>IF(C11&lt;&gt;"", COUNTIF($C$6:C11, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="str">
+        <f>IF(C12&lt;&gt;"", COUNTIF($C$6:C12, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="str">
+        <f>IF(C13&lt;&gt;"", COUNTIF($C$6:C13, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="str">
+        <f>IF(C14&lt;&gt;"", COUNTIF($C$6:C14, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="str">
+        <f>IF(C15&lt;&gt;"", COUNTIF($C$6:C15, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="str">
+        <f>IF(C16&lt;&gt;"", COUNTIF($C$6:C16, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="str">
+        <f>IF(C17&lt;&gt;"", COUNTIF($C$6:C17, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="str">
+        <f>IF(C18&lt;&gt;"", COUNTIF($C$6:C18, "&lt;&gt;"), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="str">
+        <f>IF(C19&lt;&gt;"", COUNTIF($C$6:C19, "&lt;&gt;"), "")</f>
         <v/>
       </c>
     </row>

--- a/Excel配置表/敌人配置表.xlsx
+++ b/Excel配置表/敌人配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\《鸽鸽塔防》定档最终版\Assets\Excel配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FF2A21-61EB-42CB-B3D9-C278F0977BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5988E69-4F67-4A50-8FC0-A2B76F81FFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1548" yWindow="2844" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enemy1" sheetId="1" r:id="rId1"/>
@@ -1033,7 +1033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
